--- a/data/trans_orig/iP30A2_2023_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/iP30A2_2023_R-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FD10EB8-C9BD-4E7F-9CDE-F84F060B5664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{065554EA-11E8-429E-9A41-50F48192D9D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{69C7DBF4-541E-4AF0-A17E-9A05D34F1BCE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7E75D5FA-5BB8-434A-A092-A13C8ACC0B16}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No recogida en edición</t>
@@ -113,7 +113,7 @@
     <t>NO</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,99%</t>
@@ -134,7 +134,7 @@
     <t>99,48%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>0,59%</t>
@@ -155,7 +155,7 @@
     <t>99,7%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>0,82%</t>
@@ -293,7 +293,7 @@
     <t>99,66%</t>
   </si>
   <si>
-    <t>Menores según si toman una 2ª pieza de fruta diaria o verduras frescas o cocinadas más de una vez al día en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>Menores según si toman una 2ª pieza de fruta diaria o verduras frescas o cocinadas más de una vez al día en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>6,15%</t>
@@ -362,76 +362,76 @@
     <t>10,25%</t>
   </si>
   <si>
-    <t>33,79%</t>
+    <t>33,49%</t>
   </si>
   <si>
     <t>4,7%</t>
   </si>
   <si>
-    <t>18,31%</t>
+    <t>17,18%</t>
   </si>
   <si>
     <t>7,09%</t>
   </si>
   <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
   </si>
   <si>
     <t>50,12%</t>
   </si>
   <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
   </si>
   <si>
     <t>62,03%</t>
   </si>
   <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
   </si>
   <si>
     <t>56,9%</t>
   </si>
   <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>70,51%</t>
   </si>
   <si>
     <t>39,63%</t>
   </si>
   <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
   </si>
   <si>
     <t>33,27%</t>
   </si>
   <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
   </si>
   <si>
     <t>36,01%</t>
   </si>
   <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
   </si>
   <si>
     <t>1,25%</t>
@@ -443,79 +443,73 @@
     <t>1,87%</t>
   </si>
   <si>
-    <t>4,22%</t>
+    <t>4,62%</t>
   </si>
   <si>
     <t>2,18%</t>
   </si>
   <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
+    <t>4,73%</t>
   </si>
   <si>
     <t>2,02%</t>
   </si>
   <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
+    <t>1,06%</t>
   </si>
   <si>
     <t>75,41%</t>
   </si>
   <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
   </si>
   <si>
     <t>70,33%</t>
   </si>
   <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
   </si>
   <si>
     <t>72,99%</t>
   </si>
   <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
   </si>
   <si>
     <t>22,72%</t>
   </si>
   <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
   </si>
   <si>
     <t>27,49%</t>
   </si>
   <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
   </si>
   <si>
     <t>24,99%</t>
   </si>
   <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
   </si>
   <si>
     <t>0,56%</t>
@@ -527,19 +521,19 @@
     <t>2,91%</t>
   </si>
   <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
   </si>
   <si>
     <t>2,31%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
   </si>
   <si>
     <t>2,65%</t>
@@ -548,322 +542,328 @@
     <t>1,81%</t>
   </si>
   <si>
-    <t>3,65%</t>
+    <t>3,76%</t>
   </si>
   <si>
     <t>71,2%</t>
   </si>
   <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
   </si>
   <si>
     <t>67,09%</t>
   </si>
   <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
+    <t>59,69%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
   </si>
   <si>
     <t>69,42%</t>
   </si>
   <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
   </si>
   <si>
     <t>25,89%</t>
   </si>
   <si>
-    <t>20,9%</t>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>63,19%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>67,63%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
   </si>
   <si>
     <t>32,18%</t>
   </si>
   <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>63,8%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>65,57%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>69,02%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
   </si>
   <si>
     <t>34,59%</t>
   </si>
   <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
+    <t>31,35%</t>
   </si>
   <si>
     <t>33,32%</t>
   </si>
   <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
   </si>
 </sst>
 </file>
@@ -1275,7 +1275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{071C46F6-599B-429F-87C9-51E589A74A1F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7758B3F3-DE12-4F58-8B0C-AB7D54D9660D}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2950,7 +2950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D07E05-185B-482B-82E4-BC1057221981}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26DAC536-12E6-4D63-BB29-E27102E01A55}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4625,7 +4625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A735BD3-823B-4537-88B3-62392937CB69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6762CAF-E3FE-44D0-8F3D-C88367B7B87F}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6300,7 +6300,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36519F38-630F-4F96-A1EA-D40C07E93E3D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E74F669B-BC2D-4381-86D7-72B73B077065}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6735,7 +6735,7 @@
         <v>133</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>134</v>
@@ -6750,10 +6750,10 @@
         <v>135</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -6762,13 +6762,13 @@
         <v>4408</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>139</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>140</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6783,13 +6783,13 @@
         <v>86413</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H11" s="7">
         <v>114</v>
@@ -6798,13 +6798,13 @@
         <v>73072</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M11" s="7">
         <v>218</v>
@@ -6813,13 +6813,13 @@
         <v>159484</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6834,13 +6834,13 @@
         <v>26036</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H12" s="7">
         <v>48</v>
@@ -6849,13 +6849,13 @@
         <v>28563</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M12" s="7">
         <v>91</v>
@@ -6864,13 +6864,13 @@
         <v>54598</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6944,7 +6944,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -6974,7 +6974,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6989,13 +6989,13 @@
         <v>7273</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H15" s="7">
         <v>11</v>
@@ -7004,13 +7004,13 @@
         <v>4435</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M15" s="7">
         <v>30</v>
@@ -7019,13 +7019,13 @@
         <v>11708</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7040,13 +7040,13 @@
         <v>178143</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H16" s="7">
         <v>187</v>
@@ -7055,13 +7055,13 @@
         <v>129053</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M16" s="7">
         <v>426</v>
@@ -7070,13 +7070,13 @@
         <v>307195</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7091,13 +7091,13 @@
         <v>64770</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H17" s="7">
         <v>82</v>
@@ -7106,13 +7106,13 @@
         <v>58864</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M17" s="7">
         <v>167</v>
@@ -7121,13 +7121,13 @@
         <v>123634</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7195,13 +7195,13 @@
         <v>430</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>89</v>
+        <v>187</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -7210,13 +7210,13 @@
         <v>833</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -7225,13 +7225,13 @@
         <v>1262</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7246,10 +7246,10 @@
         <v>1659</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>194</v>
@@ -7264,7 +7264,7 @@
         <v>75</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>195</v>
@@ -7279,10 +7279,10 @@
         <v>196</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7297,13 +7297,13 @@
         <v>95350</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H21" s="7">
         <v>128</v>
@@ -7312,13 +7312,13 @@
         <v>92268</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M21" s="7">
         <v>253</v>
@@ -7327,13 +7327,13 @@
         <v>187619</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7348,13 +7348,13 @@
         <v>75769</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H22" s="7">
         <v>95</v>
@@ -7363,13 +7363,13 @@
         <v>74300</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M22" s="7">
         <v>190</v>
@@ -7378,13 +7378,13 @@
         <v>150068</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7458,7 +7458,7 @@
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -7467,13 +7467,13 @@
         <v>1195</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -7482,13 +7482,13 @@
         <v>1776</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7503,10 +7503,10 @@
         <v>2978</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>72</v>
+        <v>221</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>222</v>
@@ -7521,10 +7521,10 @@
         <v>223</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -7533,13 +7533,13 @@
         <v>5235</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7554,13 +7554,13 @@
         <v>109542</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H26" s="7">
         <v>149</v>
@@ -7569,13 +7569,13 @@
         <v>109707</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M26" s="7">
         <v>298</v>
@@ -7584,13 +7584,13 @@
         <v>219248</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7605,13 +7605,13 @@
         <v>61914</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H27" s="7">
         <v>86</v>
@@ -7620,13 +7620,13 @@
         <v>58784</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M27" s="7">
         <v>169</v>
@@ -7635,13 +7635,13 @@
         <v>120698</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7709,13 +7709,13 @@
         <v>1011</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>189</v>
+        <v>245</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -7724,13 +7724,13 @@
         <v>2027</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>132</v>
+        <v>246</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -7862,13 +7862,13 @@
         <v>233521</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>181</v>
+        <v>267</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H32" s="7">
         <v>321</v>
@@ -7877,13 +7877,13 @@
         <v>226095</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>271</v>
+        <v>214</v>
       </c>
       <c r="M32" s="7">
         <v>635</v>
